--- a/prep/_resilience/Matriz metas-resiliencias OHI Chile.xlsx
+++ b/prep/_resilience/Matriz metas-resiliencias OHI Chile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\_resilience\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF410244-90FC-451C-B063-AA220E8D02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="8235"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -228,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -414,9 +420,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,13 +435,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,18 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,161 +786,159 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.45" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="13" width="4.42578125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="23" customWidth="1"/>
-    <col min="15" max="27" width="4.42578125" style="15" customWidth="1"/>
-    <col min="28" max="28" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.3828125" customWidth="1"/>
+    <col min="3" max="27" width="4.3828125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="3.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-    </row>
-    <row r="2" spans="1:40" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+    </row>
+    <row r="2" spans="1:40" ht="299.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-    </row>
-    <row r="3" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+    </row>
+    <row r="3" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -972,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="8"/>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -1004,10 +1002,10 @@
       <c r="AA3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="22"/>
-    </row>
-    <row r="4" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="AB3" s="21"/>
+    </row>
+    <row r="4" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1063,8 +1061,8 @@
       <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
     </row>
-    <row r="5" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="32"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1116,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="32"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1165,8 +1163,8 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
     </row>
-    <row r="7" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
       <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1220,8 +1218,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1244,31 +1242,31 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="S8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:40" s="7" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="35"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1295,10 +1293,10 @@
       <c r="M9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="17" t="s">
+      <c r="N9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P9" s="14"/>
@@ -1306,32 +1304,32 @@
         <v>36</v>
       </c>
       <c r="R9" s="14"/>
-      <c r="S9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="S9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36"/>
       <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
@@ -1364,34 +1362,34 @@
         <v>36</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="17" t="s">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-    </row>
-    <row r="11" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1460,8 +1458,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1486,7 +1484,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O12" s="14"/>
@@ -1509,8 +1507,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="35"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1527,7 +1525,7 @@
       <c r="M13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -1544,8 +1542,8 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
     </row>
-    <row r="14" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="M14" s="14"/>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O14" s="14"/>
@@ -1605,8 +1603,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="35"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1621,7 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="17"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -1640,8 +1638,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1672,7 @@
       <c r="M16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O16" s="14"/>
@@ -1709,8 +1707,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1758,8 +1756,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1793,8 +1791,8 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="13"/>
     </row>
-    <row r="19" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="32"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1854,8 +1852,8 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
     </row>
-    <row r="20" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="32"/>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1889,8 +1887,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+    <row r="21" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1996,43 +1994,43 @@
       <c r="M22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="N22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="Q22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA22" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="R22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2098,8 +2096,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+    <row r="24" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="33"/>
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2155,7 +2153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>36</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="17"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8" t="s">
         <v>36</v>
@@ -2214,7 +2212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -2261,8 +2259,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2287,7 +2285,7 @@
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="17"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="s">
         <v>36</v>
@@ -2308,8 +2306,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="35"/>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2322,7 @@
       <c r="G28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8" t="s">
@@ -2332,7 +2330,7 @@
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="17"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8" t="s">
         <v>36</v>
@@ -2353,8 +2351,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="36"/>
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>36</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="17"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8" t="s">
         <v>36</v>
@@ -2412,7 +2410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -2517,41 +2515,41 @@
       <c r="M31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P31" s="8"/>
-      <c r="Q31" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" s="17" t="s">
+      <c r="Q31" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="8" t="s">
         <v>36</v>
       </c>
       <c r="X31" s="14"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2599,8 +2597,8 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
     </row>
-    <row r="33" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29"/>
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
@@ -2657,7 +2655,7 @@
       <c r="U33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="V33" s="36"/>
+      <c r="V33" s="24"/>
       <c r="W33" s="13" t="s">
         <v>36</v>
       </c>
@@ -2668,8 +2666,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+    <row r="34" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="29"/>
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
@@ -2727,8 +2725,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="29"/>
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
@@ -2766,7 +2764,7 @@
       <c r="P35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="37"/>
+      <c r="Q35" s="25"/>
       <c r="R35" s="13" t="s">
         <v>36</v>
       </c>
@@ -2790,8 +2788,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+    <row r="36" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="29"/>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2859,8 +2857,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+    <row r="37" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="29"/>
       <c r="B37" s="5" t="s">
         <v>25</v>
       </c>
@@ -2930,8 +2928,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+    <row r="38" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="29"/>
       <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
@@ -3001,8 +2999,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
@@ -3062,8 +3060,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+    <row r="40" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
@@ -3125,8 +3123,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="30"/>
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
@@ -3178,20 +3176,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/prep/_resilience/Matriz metas-resiliencias OHI Chile.xlsx
+++ b/prep/_resilience/Matriz metas-resiliencias OHI Chile.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chl\prep\_resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760C9B8-44A8-4168-8C23-13F25A1D79A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE8F5B9-01E1-41EF-A1E2-CBABA3FF6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="matriz" sheetId="2" r:id="rId2"/>
     <sheet name="category" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -233,15 +244,9 @@
     <t>fsc_amerb</t>
   </si>
   <si>
-    <t>pcr</t>
-  </si>
-  <si>
     <t>prot</t>
   </si>
   <si>
-    <t>n_proyexplora</t>
-  </si>
-  <si>
     <t>n_opa</t>
   </si>
   <si>
@@ -275,9 +280,6 @@
     <t>con_eerr</t>
   </si>
   <si>
-    <t>est_rrrdd</t>
-  </si>
-  <si>
     <t>AO</t>
   </si>
   <si>
@@ -408,6 +410,15 @@
   </si>
   <si>
     <t>Bosques y Matorrales</t>
+  </si>
+  <si>
+    <t>prc</t>
+  </si>
+  <si>
+    <t>est_rrdd</t>
+  </si>
+  <si>
+    <t>n_anid</t>
   </si>
 </sst>
 </file>
@@ -559,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -626,6 +637,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,26 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,9 +995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32:B37"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.45" x14ac:dyDescent="0.4"/>
@@ -1003,37 +1009,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="299.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -1198,7 +1204,7 @@
       <c r="AB3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1255,7 +1261,7 @@
       <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1316,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1363,7 @@
       <c r="AA6" s="12"/>
     </row>
     <row r="7" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1412,7 +1418,7 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="37" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1459,7 +1465,7 @@
       <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="1:40" s="6" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1528,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1652,7 +1658,7 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1701,7 +1707,7 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1742,7 @@
       <c r="AA13" s="13"/>
     </row>
     <row r="14" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1803,7 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1838,7 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1901,7 +1907,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1950,7 +1956,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +1991,7 @@
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2052,7 @@
       <c r="AA19" s="12"/>
     </row>
     <row r="20" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2087,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2223,7 +2229,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2290,7 +2296,7 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="31"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2453,7 +2459,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2500,7 +2506,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="33"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2551,7 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="34"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2683,425 +2689,425 @@
         <v>20</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="U31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="V31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="W31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40" t="s">
+      <c r="C31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37" t="s">
+      <c r="B32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37" t="s">
+      <c r="C33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="33"/>
+      <c r="B35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="33"/>
+      <c r="B36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="33"/>
+      <c r="B37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA35" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="17.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z37" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA37" s="37" t="s">
+      <c r="C37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA37" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3142,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1223B481-DD7E-4674-90C5-BCF032C9D562}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3152,7 +3158,7 @@
     <col min="2" max="3" width="41.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="96.9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3160,87 +3166,87 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="R1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>82</v>
+      <c r="AB1" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
@@ -3297,10 +3303,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" t="s">
@@ -3342,10 +3348,10 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" t="s">
@@ -3387,10 +3393,10 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="25"/>
       <c r="F5" t="s">
@@ -3420,10 +3426,10 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" t="s">
@@ -3465,10 +3471,10 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" t="s">
@@ -3495,10 +3501,10 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" t="s">
@@ -3552,10 +3558,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -3605,7 +3611,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="25"/>
@@ -3669,10 +3675,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" t="s">
@@ -3702,7 +3708,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3716,7 +3722,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -3783,7 +3789,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
@@ -3848,10 +3854,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" t="s">
@@ -3881,7 +3887,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -3896,7 +3902,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -3950,7 +3956,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -3965,7 +3971,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -4031,7 +4037,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" t="s">
@@ -4100,10 +4106,10 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" t="s">
@@ -4160,10 +4166,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" t="s">
@@ -4208,7 +4214,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1"/>
       <c r="D24" t="s">
@@ -4256,7 +4262,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="25"/>
@@ -4287,7 +4293,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>9</v>
@@ -4316,7 +4322,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -4345,10 +4351,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -4395,7 +4401,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="25"/>
@@ -4468,439 +4474,439 @@
     </row>
     <row r="30" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="R30" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="S30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="U30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="V30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="W30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="X30" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A31" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A32" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="T32" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37" t="s">
+      <c r="D32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A33" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A34" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB34" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB34" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A35" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X35" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A36" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="U36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="V36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="X36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA36" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB36" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB36" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4914,7 +4920,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4924,19 +4930,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -4944,13 +4950,13 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4961,13 +4967,13 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4978,13 +4984,13 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4995,13 +5001,13 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5009,16 +5015,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5029,13 +5035,13 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5046,13 +5052,13 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5063,13 +5069,13 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5080,13 +5086,13 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5097,13 +5103,13 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5111,16 +5117,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5128,16 +5134,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5145,16 +5151,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5162,16 +5168,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5179,16 +5185,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5196,16 +5202,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5213,16 +5219,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5230,16 +5236,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5247,16 +5253,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5264,16 +5270,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5281,16 +5287,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5298,16 +5304,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5315,16 +5321,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5332,16 +5338,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5349,16 +5355,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E26">
         <v>1</v>
